--- a/m50,m40,m60 Pnp/Rev 2.0/BOM-speeduino v0.4.3 compatible PCB for m43 rev2.0.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.0/BOM-speeduino v0.4.3 compatible PCB for m43 rev2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749ABF93-9177-4436-80BB-5BE0CF8C8583}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27112BC9-B574-438C-B738-4443C7E2ADFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="1920" windowWidth="23475" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -2067,8 +2067,8 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="24" spans="1:19" ht="16.5" thickBot="1">
       <c r="A24" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>200</v>
@@ -3400,28 +3400,28 @@
       </c>
       <c r="M24" s="6">
         <f>K24*A24</f>
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="N24" s="6">
         <f>L24*A24</f>
-        <v>0.49</v>
+        <v>0.98</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1,SAM1213-02-ND</v>
+        <v>2,SAM1213-02-ND</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="7"/>
-        <v>1x 2 POS Header</v>
+        <v>2x 2 POS Header</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="4"/>
-        <v>200-SSW10201TS|1</v>
+        <v>200-SSW10201TS|2</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="5"/>
-        <v>SSW-102-01-T-S 1</v>
+        <v>SSW-102-01-T-S 2</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.5" thickBot="1">
@@ -5127,11 +5127,11 @@
       <c r="L58" s="1"/>
       <c r="M58" s="10">
         <f>SUM(M3:M53)</f>
-        <v>93.45999999999998</v>
+        <v>93.69</v>
       </c>
       <c r="N58" s="10">
         <f>SUM(N3:N53)</f>
-        <v>111.65200000000002</v>
+        <v>112.14200000000001</v>
       </c>
       <c r="O58" s="9" t="s">
         <v>65</v>

--- a/m50,m40,m60 Pnp/Rev 2.0/BOM-speeduino v0.4.3 compatible PCB for m43 rev2.0.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.0/BOM-speeduino v0.4.3 compatible PCB for m43 rev2.0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27112BC9-B574-438C-B738-4443C7E2ADFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD907CE-F923-4D82-BF9F-4B3251F10EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1672,60 +1672,60 @@
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2067,8 +2067,8 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2084,6 +2084,7 @@
     <col min="16" max="16" width="27.375" customWidth="1"/>
     <col min="17" max="17" width="28" customWidth="1"/>
     <col min="18" max="18" width="22.375" customWidth="1"/>
+    <col min="19" max="19" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" thickBot="1">
@@ -2159,12 +2160,8 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="str">
-        <f t="shared" ref="P2:P27" si="0">IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
+        <f t="shared" ref="P2:P29" si="0">IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
         <v/>
-      </c>
-      <c r="Q2" t="str">
-        <f>A2&amp;"x "&amp;C2</f>
-        <v xml:space="preserve">x </v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1">
@@ -2221,11 +2218,11 @@
         <v>Capacitor - 1x 10uF</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R27" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
+        <f t="shared" ref="R3:R29" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
         <v>80-T356G106K035AT|1</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S27" si="5">H3&amp;" "&amp;A3</f>
+        <f t="shared" ref="S3:S29" si="5">H3&amp;" "&amp;A3</f>
         <v>T356G106K035AT 1</v>
       </c>
     </row>
@@ -3020,10 +3017,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" ref="Q17:Q29" si="7">A17&amp;"x "&amp;C17</f>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R17" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3082,7 +3075,7 @@
         <v>1,P7307-ND</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q17:Q29" si="7">A18&amp;"x "&amp;C18</f>
         <v>1x Surge Protection</v>
       </c>
       <c r="R18" t="str">
@@ -3114,10 +3107,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R19" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3444,10 +3433,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R25" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3628,20 +3613,20 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="str">
-        <f>IF(NOT(I29=""),A28&amp;","&amp;I29,"")</f>
-        <v>1,PN2222AFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2907ABUFS-ND</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="7"/>
         <v>1x PNP transistor</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(NOT(J29=""),J29&amp;"|"&amp;A28,"")</f>
-        <v>512-PN2222ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2907ABU|1</v>
       </c>
       <c r="S28" t="str">
-        <f>H29&amp;" "&amp;A28</f>
-        <v>PN2222ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2907ABU 1</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1">
@@ -3690,20 +3675,20 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="str">
-        <f>IF(NOT(I28=""),A29&amp;","&amp;I28,"")</f>
-        <v>1,PN2907ABUFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2222AFS-ND</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="7"/>
         <v>1x NPN transistor</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(NOT(J28=""),J28&amp;"|"&amp;A29,"")</f>
-        <v>512-PN2907ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2222ABU|1</v>
       </c>
       <c r="S29" t="str">
-        <f>H28&amp;" "&amp;A29</f>
-        <v>PN2907ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2222ABU 1</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
@@ -3719,18 +3704,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="6"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4" t="e">
-        <f>IF(NOT(#REF!=""),A30&amp;","&amp;#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R30" t="e">
-        <f>IF(NOT(#REF!=""),#REF!&amp;"|"&amp;A30,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S30" t="e">
-        <f>#REF!&amp;" "&amp;A30</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" thickBot="1">
       <c r="A31" s="17">
